--- a/SNOW.xlsx
+++ b/SNOW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F455A0-3DF6-E14D-8C28-45BA1424C660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E423B96-C373-2E4E-BB12-1CD3274ED4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{3BDED087-3407-8241-8728-00B8A6385B6E}"/>
   </bookViews>
@@ -794,10 +794,10 @@
   <dimension ref="A1:EV29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X25" sqref="X25"/>
+      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1072,26 +1072,6 @@
       <c r="AB6" s="17">
         <f t="shared" si="0"/>
         <v>4459.4564395395155</v>
-      </c>
-      <c r="AC6" s="17" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD6" s="17" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AE6" s="17" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF6" s="17" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG6" s="17" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:37" s="10" customFormat="1">
